--- a/ldas/data/sites/list.xlsx
+++ b/ldas/data/sites/list.xlsx
@@ -509,37 +509,33 @@
           <t>o:Site</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2022-02-17T02:05:20+00:00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>{'@id': 'https://shared.ldas.jp/omeka-s/api/site_pages/3', 'o:id': 3}</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2022-02-15T15:17:00+00:00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>{'@id': 'https://shared.ldas.jp/omeka-s/api/site_pages/1', 'o:id': 1}</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2022-03-04T02:32:47+00:00</t>
+          <t>2022-02-18T00:12:56+00:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[{'data': {'id': 1, 'label': ''}, 'links': [], 'type': 'page'}, {'data': {'label': '検索', 'url': 'https://shared.ldas.jp/omeka-s/s/default/find2'}, 'links': [], 'type': 'url'}, {'data': {'label': '', 'query': ''}, 'links': [], 'type': 'browse'}]</t>
+          <t>[{'data': {'id': 3, 'label': ''}, 'links': [], 'type': 'page'}, {'data': {'label': '閲覧', 'query': ''}, 'links': [], 'type': 'browse'}]</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -547,12 +543,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/site_pages/1', 'o:id': 1}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/site_pages/3', 'o:id': 3}]</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>{'@id': 'https://shared.ldas.jp/omeka-s/api/items?site_id=1'}</t>
+          <t>{'@id': 'https://shared.ldas.jp/omeka-s/api/items?site_id=3'}</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -562,18 +558,22 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
+          <t>oss</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>default</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>default</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr"/>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>{'@id': 'https://shared.ldas.jp/omeka-s/api/assets/1', 'o:id': 1}</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>default</t>
+          <t>OSSで開発されたデジタルアーカイブサイトまとめ</t>
         </is>
       </c>
     </row>
@@ -583,19 +583,19 @@
           <t>o:Site</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2022-02-17T02:05:20+00:00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>{'@id': 'https://shared.ldas.jp/omeka-s/api/site_pages/3', 'o:id': 3}</t>
-        </is>
-      </c>
+          <t>2022-07-06T03:07:42+00:00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -604,12 +604,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2022-02-18T00:12:56+00:00</t>
+          <t>2022-07-06T03:37:33+00:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>[{'data': {'id': 3, 'label': ''}, 'links': [], 'type': 'page'}, {'data': {'label': '閲覧', 'query': ''}, 'links': [], 'type': 'browse'}]</t>
+          <t>[{'data': {'label': 'Browse', 'query': ''}, 'links': [], 'type': 'browse'}]</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -617,12 +617,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/site_pages/3', 'o:id': 3}]</t>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/site_pages/6', 'o:id': 6}]</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>{'@id': 'https://shared.ldas.jp/omeka-s/api/items?site_id=3'}</t>
+          <t>{'@id': 'https://shared.ldas.jp/omeka-s/api/items?site_id=6'}</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -632,22 +632,18 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>oss</t>
+          <t>default</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
+          <t>Omeka-S-theme-Bootstrap5</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
           <t>default</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>{'@id': 'https://shared.ldas.jp/omeka-s/api/assets/1', 'o:id': 1}</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>OSSで開発されたデジタルアーカイブサイトまとめ</t>
         </is>
       </c>
     </row>

--- a/ldas/data/sites/list.xlsx
+++ b/ldas/data/sites/list.xlsx
@@ -604,7 +604,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2022-07-06T03:37:33+00:00</t>
+          <t>2022-07-06T05:04:16+00:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">

--- a/ldas/data/sites/list.xlsx
+++ b/ldas/data/sites/list.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,6 +647,76 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>o:Site</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2022-08-25T06:45:06+00:00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>7</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2022-08-25T06:45:45+00:00</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[{'data': {'label': 'Browse', 'query': ''}, 'links': [], 'type': 'browse'}]</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[{'@id': 'https://shared.ldas.jp/omeka-s/api/site_pages/7', 'o:id': 7}]</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>{'@id': 'https://shared.ldas.jp/omeka-s/api/items?site_id=7'}</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>[{'o:role': 'admin', 'o:user': {'@id': 'https://shared.ldas.jp/omeka-s/api/users/1', 'o:id': 1}}]</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>foundation</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
